--- a/Weekly_Sales_Report_4.xlsx
+++ b/Weekly_Sales_Report_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Revenue</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2024-08-19T00:00:00Z</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2710</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
@@ -405,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -413,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2460</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -421,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5"/>
@@ -585,6 +591,38 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>380</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>